--- a/Work/results/extendedLassoResults.xlsx
+++ b/Work/results/extendedLassoResults.xlsx
@@ -7,8 +7,11 @@
     <s:workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </s:bookViews>
   <s:sheets>
-    <s:sheet name="ext.results25000.csv" sheetId="1" r:id="rId1"/>
-    <s:sheet name="ext.results32000.csv" sheetId="2" r:id="rId2"/>
+    <s:sheet name="amsterdam" sheetId="1" r:id="rId1"/>
+    <s:sheet name="australia" sheetId="2" r:id="rId2"/>
+    <s:sheet name="alicante" sheetId="3" r:id="rId3"/>
+    <s:sheet name="athens" sheetId="4" r:id="rId4"/>
+    <s:sheet name="austria" sheetId="5" r:id="rId5"/>
   </s:sheets>
   <s:definedNames/>
   <s:calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
@@ -16,33 +19,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
-    <t>London</t>
+    <t>Aplha</t>
   </si>
   <si>
-    <t>Non0Weights</t>
+    <t>Non0WeightsCF</t>
+  </si>
+  <si>
+    <t>Non0WeightsDF</t>
   </si>
   <si>
     <t>RMSE_L4F</t>
   </si>
   <si>
-    <t>RMSE_Twitter</t>
+    <t>RMSE_T_CF</t>
   </si>
   <si>
-    <t>R^2_twitter</t>
-  </si>
-  <si>
-    <t>germany</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>italy</t>
-  </si>
-  <si>
-    <t>spain</t>
+    <t>RMSE_T_DF</t>
   </si>
 </sst>
 </file>
@@ -403,7 +397,7 @@
   <sheetPr>
     <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1" activeCell="A1"/>
@@ -416,105 +410,396 @@
     <col min="3" max="3" width="9.10"/>
     <col min="4" max="4" width="9.10"/>
     <col min="5" max="5" width="9.10"/>
+    <col min="6" max="6" width="9.10"/>
+    <col min="7" max="7" width="9.10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c s="1" r="B1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c s="1" r="C1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c s="1" r="D1" t="s">
         <v>2</v>
       </c>
       <c s="1" r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c s="1" r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c s="1" r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c s="1" r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>541</v>
+      </c>
+      <c r="D2" t="n">
+        <v>680</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1734.6301921922088</v>
+      </c>
+      <c r="F2" t="n">
+        <v>22959.701665050034</v>
+      </c>
+      <c r="G2" t="n">
+        <v>47622.6833204215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c s="1" r="A3" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c s="1" r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.2520864230499379</v>
-      </c>
-      <c r="C2" t="n">
-        <v>670.6969926888281</v>
-      </c>
-      <c r="D2" t="n">
-        <v>506.6912905975307</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="B3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>412</v>
+      </c>
+      <c r="D3" t="n">
+        <v>521</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1734.6301921922088</v>
+      </c>
+      <c r="F3" t="n">
+        <v>22239.822954365718</v>
+      </c>
+      <c r="G3" t="n">
+        <v>46904.66629107286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c s="1" r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>336</v>
+      </c>
+      <c r="D4" t="n">
+        <v>405</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1734.6301921922088</v>
+      </c>
+      <c r="F4" t="n">
+        <v>20916.14753989999</v>
+      </c>
+      <c r="G4" t="n">
+        <v>36398.07284093612</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c s="1" r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>251</v>
+      </c>
+      <c r="D5" t="n">
+        <v>294</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1734.6301921922088</v>
+      </c>
+      <c r="F5" t="n">
+        <v>17168.532171578932</v>
+      </c>
+      <c r="G5" t="n">
+        <v>25118.643106113628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c s="1" r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>214</v>
+      </c>
+      <c r="D6" t="n">
+        <v>227</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1734.6301921922088</v>
+      </c>
+      <c r="F6" t="n">
+        <v>13488.681949649555</v>
+      </c>
+      <c r="G6" t="n">
+        <v>20355.375515872973</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c s="1" r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>184</v>
+      </c>
+      <c r="D7" t="n">
+        <v>204</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1734.6301921922088</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9349.190031116867</v>
+      </c>
+      <c r="G7" t="n">
+        <v>18334.318514879764</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c s="1" r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>159</v>
+      </c>
+      <c r="D8" t="n">
+        <v>168</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1734.6301921922088</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5841.966949755543</v>
+      </c>
+      <c r="G8" t="n">
+        <v>13541.757368116918</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c s="1" r="A9" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c s="1" r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.2468694516362656</v>
-      </c>
-      <c r="C3" t="n">
-        <v>441.76260295189064</v>
-      </c>
-      <c r="D3" t="n">
-        <v>401.32593250780707</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c s="1" r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-12.10860166173866</v>
-      </c>
-      <c r="C4" t="n">
-        <v>412.1233419191991</v>
-      </c>
-      <c r="D4" t="n">
-        <v>106.87424561137263</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c s="1" r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.06359262598037774</v>
-      </c>
-      <c r="C5" t="n">
-        <v>466.31277750969457</v>
-      </c>
-      <c r="D5" t="n">
-        <v>325.67987286964984</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c s="1" r="A6" t="s">
+      <c r="B9" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>136</v>
+      </c>
+      <c r="D9" t="n">
+        <v>132</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1734.6301921922088</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4698.11468981211</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6917.294396627313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c s="1" r="A10" t="n">
         <v>8</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.008856068649682691</v>
-      </c>
-      <c r="C6" t="n">
-        <v>830.9926838173535</v>
-      </c>
-      <c r="D6" t="n">
-        <v>673.8736843599295</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4</v>
+      <c r="B10" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>113</v>
+      </c>
+      <c r="D10" t="n">
+        <v>115</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1734.6301921922088</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5582.015395482885</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4285.471134031374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c s="1" r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>81</v>
+      </c>
+      <c r="D11" t="n">
+        <v>95</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1734.6301921922088</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6305.92699516389</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5181.234071851153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c s="1" r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>67</v>
+      </c>
+      <c r="D12" t="n">
+        <v>72</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1734.6301921922088</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6458.5126463712295</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5509.721197508182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c s="1" r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>48</v>
+      </c>
+      <c r="D13" t="n">
+        <v>42</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1734.6301921922088</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6399.190709443816</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5536.598791159708</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c s="1" r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4000.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>31</v>
+      </c>
+      <c r="D14" t="n">
+        <v>35</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1734.6301921922088</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6024.65412268851</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4994.35671952691</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c s="1" r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8000.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>21</v>
+      </c>
+      <c r="D15" t="n">
+        <v>23</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1734.6301921922088</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5624.299770245529</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4724.650107221111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c s="1" r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>16000.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>16</v>
+      </c>
+      <c r="D16" t="n">
+        <v>16</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1734.6301921922088</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5012.19816591709</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4072.9399183227083</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c s="1" r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>32000.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>9</v>
+      </c>
+      <c r="D17" t="n">
+        <v>12</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1734.6301921922088</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3982.6136655352425</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3320.830066751819</v>
       </c>
     </row>
   </sheetData>
@@ -526,7 +811,7 @@
   <sheetPr>
     <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1" activeCell="A1"/>
@@ -539,105 +824,1638 @@
     <col min="3" max="3" width="9.10"/>
     <col min="4" max="4" width="9.10"/>
     <col min="5" max="5" width="9.10"/>
+    <col min="6" max="6" width="9.10"/>
+    <col min="7" max="7" width="9.10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c s="1" r="B1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c s="1" r="C1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c s="1" r="D1" t="s">
         <v>2</v>
       </c>
       <c s="1" r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c s="1" r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c s="1" r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c s="1" r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1361</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1883</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3218.6582052532904</v>
+      </c>
+      <c r="F2" t="n">
+        <v>18404.336915497686</v>
+      </c>
+      <c r="G2" t="n">
+        <v>48953.66557407931</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c s="1" r="A3" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c s="1" r="A2" t="s">
+      <c r="B3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1053</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1405</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3218.6582052532904</v>
+      </c>
+      <c r="F3" t="n">
+        <v>23548.043499005045</v>
+      </c>
+      <c r="G3" t="n">
+        <v>52221.651931185086</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c s="1" r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>822</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1104</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3218.6582052532904</v>
+      </c>
+      <c r="F4" t="n">
+        <v>32084.82680240302</v>
+      </c>
+      <c r="G4" t="n">
+        <v>62910.098221506305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c s="1" r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>569</v>
+      </c>
+      <c r="D5" t="n">
+        <v>735</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3218.6582052532904</v>
+      </c>
+      <c r="F5" t="n">
+        <v>39302.681795574135</v>
+      </c>
+      <c r="G5" t="n">
+        <v>95963.46345925915</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c s="1" r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>416</v>
+      </c>
+      <c r="D6" t="n">
+        <v>531</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3218.6582052532904</v>
+      </c>
+      <c r="F6" t="n">
+        <v>44742.37314936937</v>
+      </c>
+      <c r="G6" t="n">
+        <v>119559.75868780071</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c s="1" r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>323</v>
+      </c>
+      <c r="D7" t="n">
+        <v>374</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3218.6582052532904</v>
+      </c>
+      <c r="F7" t="n">
+        <v>44054.8655816045</v>
+      </c>
+      <c r="G7" t="n">
+        <v>126225.94832978846</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c s="1" r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>239</v>
+      </c>
+      <c r="D8" t="n">
+        <v>256</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3218.6582052532904</v>
+      </c>
+      <c r="F8" t="n">
+        <v>43112.87490386632</v>
+      </c>
+      <c r="G8" t="n">
+        <v>107103.82021937757</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c s="1" r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>187</v>
+      </c>
+      <c r="D9" t="n">
+        <v>182</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3218.6582052532904</v>
+      </c>
+      <c r="F9" t="n">
+        <v>36097.80223315967</v>
+      </c>
+      <c r="G9" t="n">
+        <v>91101.31211456672</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c s="1" r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>153</v>
+      </c>
+      <c r="D10" t="n">
+        <v>160</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3218.6582052532904</v>
+      </c>
+      <c r="F10" t="n">
+        <v>27278.965782451207</v>
+      </c>
+      <c r="G10" t="n">
+        <v>74803.07192692133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c s="1" r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>132</v>
+      </c>
+      <c r="D11" t="n">
+        <v>136</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3218.6582052532904</v>
+      </c>
+      <c r="F11" t="n">
+        <v>20174.84543006444</v>
+      </c>
+      <c r="G11" t="n">
+        <v>57193.40049743614</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c s="1" r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>116</v>
+      </c>
+      <c r="D12" t="n">
+        <v>123</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3218.6582052532904</v>
+      </c>
+      <c r="F12" t="n">
+        <v>13724.503389888394</v>
+      </c>
+      <c r="G12" t="n">
+        <v>36671.63702012295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c s="1" r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>102</v>
+      </c>
+      <c r="D13" t="n">
+        <v>107</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3218.6582052532904</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10922.990807842947</v>
+      </c>
+      <c r="G13" t="n">
+        <v>23693.186087176957</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c s="1" r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4000.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>91</v>
+      </c>
+      <c r="D14" t="n">
+        <v>92</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3218.6582052532904</v>
+      </c>
+      <c r="F14" t="n">
+        <v>10129.771044748242</v>
+      </c>
+      <c r="G14" t="n">
+        <v>13493.984036437289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c s="1" r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8000.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>74</v>
+      </c>
+      <c r="D15" t="n">
+        <v>71</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3218.6582052532904</v>
+      </c>
+      <c r="F15" t="n">
+        <v>10243.291020877918</v>
+      </c>
+      <c r="G15" t="n">
+        <v>9547.936534141161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c s="1" r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>16000.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>55</v>
+      </c>
+      <c r="D16" t="n">
+        <v>48</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3218.6582052532904</v>
+      </c>
+      <c r="F16" t="n">
+        <v>9529.437668542987</v>
+      </c>
+      <c r="G16" t="n">
+        <v>7837.7235834577905</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c s="1" r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>32000.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>36</v>
+      </c>
+      <c r="D17" t="n">
+        <v>35</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3218.6582052532904</v>
+      </c>
+      <c r="F17" t="n">
+        <v>7799.987346857168</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6226.186797710129</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
+  </sheetPr>
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1" activeCell="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.10"/>
+    <col min="2" max="2" width="9.10"/>
+    <col min="3" max="3" width="9.10"/>
+    <col min="4" max="4" width="9.10"/>
+    <col min="5" max="5" width="9.10"/>
+    <col min="6" max="6" width="9.10"/>
+    <col min="7" max="7" width="9.10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c s="1" r="B1" t="s">
         <v>0</v>
       </c>
+      <c s="1" r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c s="1" r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c s="1" r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c s="1" r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c s="1" r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c s="1" r="A2" t="n">
+        <v>0</v>
+      </c>
       <c r="B2" t="n">
-        <v>0.3332903861999037</v>
+        <v>0.5</v>
       </c>
       <c r="C2" t="n">
-        <v>633.2409755505776</v>
+        <v>120</v>
       </c>
       <c r="D2" t="n">
-        <v>506.6912905975307</v>
+        <v>114</v>
       </c>
       <c r="E2" t="n">
+        <v>1348.065717529532</v>
+      </c>
+      <c r="F2" t="n">
+        <v>9708.831169929974</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8943.28176283772</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c s="1" r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>105</v>
+      </c>
+      <c r="D3" t="n">
+        <v>110</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1348.065717529532</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7135.722669038179</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6998.831414212466</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c s="1" r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>104</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1348.065717529532</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5928.60650319744</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5533.480267287129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c s="1" r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>78</v>
+      </c>
+      <c r="D5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1348.065717529532</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4396.202366753331</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4720.4969422143695</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c s="1" r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>63</v>
+      </c>
+      <c r="D6" t="n">
+        <v>64</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1348.065717529532</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3461.170832147267</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4537.091244284933</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c s="1" r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>47</v>
+      </c>
+      <c r="D7" t="n">
+        <v>50</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1348.065717529532</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2809.1416309944093</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4130.105669191038</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c s="1" r="A8" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c s="1" r="A3" t="s">
+      <c r="B8" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>24</v>
+      </c>
+      <c r="D8" t="n">
+        <v>31</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1348.065717529532</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2376.08419012745</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3855.0960669586316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c s="1" r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12</v>
+      </c>
+      <c r="D9" t="n">
+        <v>15</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1348.065717529532</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2118.1727297186217</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3586.947185273136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c s="1" r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1348.065717529532</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1675.3636703866407</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3525.9559990774073</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c s="1" r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1348.065717529532</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1217.2668054787541</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3441.379721038696</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c s="1" r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
         <v>5</v>
       </c>
+      <c r="E12" t="n">
+        <v>1348.065717529532</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1181.5684513871274</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3373.5392563919404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c s="1" r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1348.065717529532</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1181.6065297207626</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3326.707021205935</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c s="1" r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4000.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1348.065717529532</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1181.6831375279928</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3283.2716946445885</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c s="1" r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8000.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1348.065717529532</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1181.8381572916776</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3282.407683735679</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c s="1" r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>16000.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1348.065717529532</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1182.1554100845017</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3280.676415173873</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c s="1" r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>32000.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1348.065717529532</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1182.818741337894</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3277.207609651661</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
+  </sheetPr>
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1" activeCell="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.10"/>
+    <col min="2" max="2" width="9.10"/>
+    <col min="3" max="3" width="9.10"/>
+    <col min="4" max="4" width="9.10"/>
+    <col min="5" max="5" width="9.10"/>
+    <col min="6" max="6" width="9.10"/>
+    <col min="7" max="7" width="9.10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c s="1" r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c s="1" r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c s="1" r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c s="1" r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c s="1" r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c s="1" r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c s="1" r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>258</v>
+      </c>
+      <c r="D2" t="n">
+        <v>327</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1500.9949319307564</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7318.641384550868</v>
+      </c>
+      <c r="G2" t="n">
+        <v>14665.85165275524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c s="1" r="A3" t="n">
+        <v>1</v>
+      </c>
       <c r="B3" t="n">
-        <v>0.24679696071835955</v>
+        <v>1.0</v>
       </c>
       <c r="C3" t="n">
-        <v>441.78386288225516</v>
+        <v>205</v>
       </c>
       <c r="D3" t="n">
-        <v>401.32593250780707</v>
+        <v>243</v>
       </c>
       <c r="E3" t="n">
+        <v>1500.9949319307564</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7411.111076224784</v>
+      </c>
+      <c r="G3" t="n">
+        <v>16202.580076118675</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c s="1" r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>173</v>
+      </c>
+      <c r="D4" t="n">
+        <v>184</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1500.9949319307564</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7078.866232237061</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18538.95588419533</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c s="1" r="A5" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c s="1" r="A4" t="s">
+      <c r="B5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>149</v>
+      </c>
+      <c r="D5" t="n">
+        <v>146</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1500.9949319307564</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5829.850990973152</v>
+      </c>
+      <c r="G5" t="n">
+        <v>19467.140115729424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c s="1" r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>136</v>
+      </c>
+      <c r="D6" t="n">
+        <v>129</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1500.9949319307564</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6260.155074434147</v>
+      </c>
+      <c r="G6" t="n">
+        <v>19122.09548605904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c s="1" r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>121</v>
+      </c>
+      <c r="D7" t="n">
+        <v>115</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1500.9949319307564</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7829.450347348644</v>
+      </c>
+      <c r="G7" t="n">
+        <v>11205.069141577813</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c s="1" r="A8" t="n">
         <v>6</v>
       </c>
+      <c r="B8" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>107</v>
+      </c>
+      <c r="D8" t="n">
+        <v>104</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1500.9949319307564</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7760.63082288356</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9216.464771505167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c s="1" r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>91</v>
+      </c>
+      <c r="D9" t="n">
+        <v>83</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1500.9949319307564</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7142.766020627364</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6692.963372396404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c s="1" r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>70</v>
+      </c>
+      <c r="D10" t="n">
+        <v>68</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1500.9949319307564</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6862.76848129654</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5958.879677841451</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c s="1" r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>40</v>
+      </c>
+      <c r="D11" t="n">
+        <v>45</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1500.9949319307564</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7688.283496746865</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7063.4994546384805</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c s="1" r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>22</v>
+      </c>
+      <c r="D12" t="n">
+        <v>27</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1500.9949319307564</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6478.663186192283</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5942.18163997316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c s="1" r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>10</v>
+      </c>
+      <c r="D13" t="n">
+        <v>14</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1500.9949319307564</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4572.082531605812</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4143.537183694128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c s="1" r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4000.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>9</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1500.9949319307564</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3329.0730277139196</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3366.3727706362215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c s="1" r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8000.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1500.9949319307564</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2728.704053690957</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3422.1506329801296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c s="1" r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>16000.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1500.9949319307564</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2383.588673303966</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3424.436481202235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c s="1" r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>32000.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1500.9949319307564</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2157.073063741906</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3561.013917892168</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
+  </sheetPr>
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1" activeCell="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.10"/>
+    <col min="2" max="2" width="9.10"/>
+    <col min="3" max="3" width="9.10"/>
+    <col min="4" max="4" width="9.10"/>
+    <col min="5" max="5" width="9.10"/>
+    <col min="6" max="6" width="9.10"/>
+    <col min="7" max="7" width="9.10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c s="1" r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c s="1" r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c s="1" r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c s="1" r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c s="1" r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c s="1" r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c s="1" r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>314</v>
+      </c>
+      <c r="D2" t="n">
+        <v>352</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1197.1761821977555</v>
+      </c>
+      <c r="F2" t="n">
+        <v>10391.365621574227</v>
+      </c>
+      <c r="G2" t="n">
+        <v>17977.049509761793</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c s="1" r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>257</v>
+      </c>
+      <c r="D3" t="n">
+        <v>282</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1197.1761821977555</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11043.445676773363</v>
+      </c>
+      <c r="G3" t="n">
+        <v>16372.035726137094</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c s="1" r="A4" t="n">
+        <v>2</v>
+      </c>
       <c r="B4" t="n">
-        <v>-10.311514437640355</v>
+        <v>2.0</v>
       </c>
       <c r="C4" t="n">
-        <v>382.8330352819342</v>
+        <v>212</v>
       </c>
       <c r="D4" t="n">
-        <v>106.87424561137263</v>
+        <v>227</v>
       </c>
       <c r="E4" t="n">
+        <v>1197.1761821977555</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14072.582049481336</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13487.605923223195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c s="1" r="A5" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c s="1" r="A5" t="s">
+      <c r="B5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>176</v>
+      </c>
+      <c r="D5" t="n">
+        <v>180</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1197.1761821977555</v>
+      </c>
+      <c r="F5" t="n">
+        <v>15300.461246930296</v>
+      </c>
+      <c r="G5" t="n">
+        <v>13171.083096686318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c s="1" r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>152</v>
+      </c>
+      <c r="D6" t="n">
+        <v>164</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1197.1761821977555</v>
+      </c>
+      <c r="F6" t="n">
+        <v>14191.28816307876</v>
+      </c>
+      <c r="G6" t="n">
+        <v>12967.691793869732</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c s="1" r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>138</v>
+      </c>
+      <c r="D7" t="n">
+        <v>148</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1197.1761821977555</v>
+      </c>
+      <c r="F7" t="n">
+        <v>12700.892563318615</v>
+      </c>
+      <c r="G7" t="n">
+        <v>12642.578522179301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c s="1" r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>121</v>
+      </c>
+      <c r="D8" t="n">
+        <v>121</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1197.1761821977555</v>
+      </c>
+      <c r="F8" t="n">
+        <v>11612.135859218117</v>
+      </c>
+      <c r="G8" t="n">
+        <v>10202.684318345324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c s="1" r="A9" t="n">
         <v>7</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.07851459154035534</v>
-      </c>
-      <c r="C5" t="n">
-        <v>462.5824314990003</v>
-      </c>
-      <c r="D5" t="n">
-        <v>325.67987286964984</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="B9" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>96</v>
+      </c>
+      <c r="D9" t="n">
+        <v>101</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1197.1761821977555</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9360.025726806343</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8828.38081733645</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c s="1" r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>86</v>
+      </c>
+      <c r="D10" t="n">
+        <v>89</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1197.1761821977555</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7675.825038279277</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6742.079251477343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c s="1" r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>56</v>
+      </c>
+      <c r="D11" t="n">
+        <v>56</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1197.1761821977555</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3609.6655705766934</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3614.975186493919</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c s="1" r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>38</v>
+      </c>
+      <c r="D12" t="n">
+        <v>37</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1197.1761821977555</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3402.855883058527</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3533.578981120924</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c s="1" r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>19</v>
+      </c>
+      <c r="D13" t="n">
+        <v>21</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1197.1761821977555</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3429.763188538935</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3570.935688627404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c s="1" r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4000.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>11</v>
+      </c>
+      <c r="D14" t="n">
+        <v>14</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1197.1761821977555</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3465.803182019577</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3357.652104883649</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c s="1" r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8000.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>9</v>
+      </c>
+      <c r="D15" t="n">
+        <v>12</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1197.1761821977555</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3100.6848413350212</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2757.381737042236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c s="1" r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>16000.0</v>
+      </c>
+      <c r="C16" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c s="1" r="A6" t="s">
+      <c r="D16" t="n">
         <v>8</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.045500151661638344</v>
-      </c>
-      <c r="C6" t="n">
-        <v>815.4864870176349</v>
-      </c>
-      <c r="D6" t="n">
-        <v>673.8736843599295</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4</v>
+      <c r="E16" t="n">
+        <v>1197.1761821977555</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2189.739568761226</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1794.5535420143526</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c s="1" r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>32000.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1197.1761821977555</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1462.635740594225</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1487.530429646807</v>
       </c>
     </row>
   </sheetData>
